--- a/Documentação/Tabelas_LN/tdpur401-Linhas Ordem de Compra.xlsx
+++ b/Documentação/Tabelas_LN/tdpur401-Linhas Ordem de Compra.xlsx
@@ -2399,9 +2399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K154" sqref="K154:R154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
